--- a/MiniTemplate/Datas/item.xlsx
+++ b/MiniTemplate/Datas/item.xlsx
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/MiniTemplate/Datas/item.xlsx
+++ b/MiniTemplate/Datas/item.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -141,48 +141,6 @@
   </si>
   <si>
     <t>初始外套</t>
-  </si>
-  <si>
-    <t>上衣</t>
-  </si>
-  <si>
-    <t>初始上衣</t>
-  </si>
-  <si>
-    <t>裙子</t>
-  </si>
-  <si>
-    <t>初始下装</t>
-  </si>
-  <si>
-    <t>袜子</t>
-  </si>
-  <si>
-    <t>初始袜子</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>初始鞋子</t>
-  </si>
-  <si>
-    <t>发饰</t>
-  </si>
-  <si>
-    <t>初始发饰</t>
-  </si>
-  <si>
-    <t>中秋节发饰</t>
-  </si>
-  <si>
-    <t>中秋节鞋子</t>
-  </si>
-  <si>
-    <t>礼包</t>
-  </si>
-  <si>
-    <t>中秋节礼包</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1108,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A8" sqref="$A8:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1371,117 +1329,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8">
-        <v>10002</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
+    <row r="11" spans="3:3">
+      <c r="C11" s="6"/>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9">
-        <v>10003</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
+    <row r="13" spans="3:4">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10">
-        <v>10004</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
+    <row r="14" spans="3:4">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11">
-        <v>10005</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12">
-        <v>10006</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13">
-        <v>10007</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14">
-        <v>10008</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15">
-        <v>10009</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
+    <row r="15" spans="3:4">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
